--- a/Excel/Lv4Stage.xlsx
+++ b/Excel/Lv4Stage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gravi\ドキュメント\Poor-Railroad-Company\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3AC2E77-5A24-45AD-B880-A01F8D87DF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D34DEC-9E95-42B7-BBAE-841CFBBABE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
@@ -96,17 +96,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="165">
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="176">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -205,7 +195,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF7030A0"/>
+        <color rgb="FFFFC000"/>
       </font>
       <fill>
         <patternFill>
@@ -215,11 +205,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -246,6 +236,51 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF92D050"/>
       </font>
       <fill>
@@ -256,21 +291,21 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -291,41 +326,21 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFFC000"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -372,6 +387,41 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="8" tint="0.39994506668294322"/>
       </font>
       <fill>
@@ -382,76 +432,21 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -478,6 +473,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF7030A0"/>
       </font>
       <fill>
@@ -498,12 +523,42 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color theme="8" tint="0.39994506668294322"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
       </font>
       <fill>
         <patternFill>
@@ -513,11 +568,11 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -584,6 +639,51 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF7030A0"/>
       </font>
       <fill>
@@ -594,81 +694,31 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -685,106 +735,31 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF92D050"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -801,11 +776,31 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -813,6 +808,21 @@
       <font>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
@@ -821,7 +831,47 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFFC000"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
       </font>
       <fill>
         <patternFill>
@@ -831,21 +881,11 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -853,11 +893,6 @@
       <font>
         <color rgb="FFFF0000"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -882,17 +917,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
+        <color rgb="FFFF0000"/>
       </font>
       <fill>
         <patternFill>
@@ -902,91 +927,41 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1003,6 +978,61 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFC000"/>
       </font>
       <fill>
@@ -1013,6 +1043,26 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
       <fill>
@@ -1030,111 +1080,6 @@
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1149,11 +1094,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1161,6 +1106,91 @@
       <font>
         <color rgb="FFFF0000"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1185,81 +1215,106 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1296,96 +1351,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFC000"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1422,10 +1402,75 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -1457,6 +1502,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
       <fill>
@@ -1467,46 +1522,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1523,11 +1543,11 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1537,7 +1557,17 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1553,17 +1583,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
+        <color rgb="FFFFC000"/>
       </font>
       <fill>
         <patternFill>
@@ -1573,7 +1593,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="8" tint="0.39994506668294322"/>
+        <color rgb="FFFF0000"/>
       </font>
       <fill>
         <patternFill>
@@ -1583,56 +1603,11 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1649,41 +1624,172 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFC000"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2023,10 +2129,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706EDC5C-04A0-48F3-8B37-5A4E1097AF7E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BV16"/>
+  <dimension ref="A1:BV24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG10" sqref="AG10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AO7" sqref="AO7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3237,7 +3343,7 @@
         <v>31</v>
       </c>
       <c r="AO6">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="AP6">
         <v>31</v>
@@ -5579,531 +5685,2358 @@
         <v>20</v>
       </c>
     </row>
+    <row r="17" spans="1:74" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>20</v>
+      </c>
+      <c r="Z17">
+        <v>31</v>
+      </c>
+      <c r="AA17">
+        <v>31</v>
+      </c>
+      <c r="AB17">
+        <v>31</v>
+      </c>
+      <c r="AC17">
+        <v>31</v>
+      </c>
+      <c r="AD17">
+        <v>31</v>
+      </c>
+      <c r="AE17">
+        <v>31</v>
+      </c>
+      <c r="AF17">
+        <v>31</v>
+      </c>
+      <c r="AG17">
+        <v>31</v>
+      </c>
+      <c r="AH17">
+        <v>31</v>
+      </c>
+      <c r="AI17">
+        <v>31</v>
+      </c>
+      <c r="AJ17">
+        <v>31</v>
+      </c>
+      <c r="AK17">
+        <v>31</v>
+      </c>
+      <c r="AL17">
+        <v>31</v>
+      </c>
+      <c r="AM17">
+        <v>31</v>
+      </c>
+      <c r="AN17">
+        <v>31</v>
+      </c>
+      <c r="AO17">
+        <v>31</v>
+      </c>
+      <c r="AP17">
+        <v>31</v>
+      </c>
+      <c r="AQ17">
+        <v>31</v>
+      </c>
+      <c r="AR17">
+        <v>31</v>
+      </c>
+      <c r="AS17">
+        <v>31</v>
+      </c>
+      <c r="AT17">
+        <v>31</v>
+      </c>
+      <c r="AU17">
+        <v>31</v>
+      </c>
+      <c r="AV17">
+        <v>31</v>
+      </c>
+      <c r="AW17">
+        <v>31</v>
+      </c>
+      <c r="AX17">
+        <v>31</v>
+      </c>
+      <c r="AY17">
+        <v>31</v>
+      </c>
+      <c r="AZ17">
+        <v>31</v>
+      </c>
+      <c r="BA17">
+        <v>31</v>
+      </c>
+      <c r="BB17">
+        <v>20</v>
+      </c>
+      <c r="BC17">
+        <v>20</v>
+      </c>
+      <c r="BD17">
+        <v>20</v>
+      </c>
+      <c r="BE17">
+        <v>20</v>
+      </c>
+      <c r="BF17">
+        <v>20</v>
+      </c>
+      <c r="BG17">
+        <v>20</v>
+      </c>
+      <c r="BH17">
+        <v>20</v>
+      </c>
+      <c r="BI17">
+        <v>20</v>
+      </c>
+      <c r="BJ17">
+        <v>20</v>
+      </c>
+      <c r="BK17">
+        <v>20</v>
+      </c>
+      <c r="BL17">
+        <v>20</v>
+      </c>
+      <c r="BM17">
+        <v>20</v>
+      </c>
+      <c r="BN17">
+        <v>20</v>
+      </c>
+      <c r="BO17">
+        <v>20</v>
+      </c>
+      <c r="BP17">
+        <v>20</v>
+      </c>
+      <c r="BQ17">
+        <v>20</v>
+      </c>
+      <c r="BR17">
+        <v>20</v>
+      </c>
+      <c r="BS17">
+        <v>20</v>
+      </c>
+      <c r="BT17">
+        <v>20</v>
+      </c>
+      <c r="BU17">
+        <v>20</v>
+      </c>
+      <c r="BV17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:74" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>20</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>20</v>
+      </c>
+      <c r="BC18">
+        <v>20</v>
+      </c>
+      <c r="BD18">
+        <v>20</v>
+      </c>
+      <c r="BE18">
+        <v>20</v>
+      </c>
+      <c r="BF18">
+        <v>20</v>
+      </c>
+      <c r="BG18">
+        <v>20</v>
+      </c>
+      <c r="BH18">
+        <v>20</v>
+      </c>
+      <c r="BI18">
+        <v>20</v>
+      </c>
+      <c r="BJ18">
+        <v>20</v>
+      </c>
+      <c r="BK18">
+        <v>20</v>
+      </c>
+      <c r="BL18">
+        <v>20</v>
+      </c>
+      <c r="BM18">
+        <v>20</v>
+      </c>
+      <c r="BN18">
+        <v>20</v>
+      </c>
+      <c r="BO18">
+        <v>20</v>
+      </c>
+      <c r="BP18">
+        <v>20</v>
+      </c>
+      <c r="BQ18">
+        <v>20</v>
+      </c>
+      <c r="BR18">
+        <v>20</v>
+      </c>
+      <c r="BS18">
+        <v>20</v>
+      </c>
+      <c r="BT18">
+        <v>20</v>
+      </c>
+      <c r="BU18">
+        <v>20</v>
+      </c>
+      <c r="BV18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:74" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>20</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19">
+        <v>20</v>
+      </c>
+      <c r="BC19">
+        <v>20</v>
+      </c>
+      <c r="BD19">
+        <v>20</v>
+      </c>
+      <c r="BE19">
+        <v>20</v>
+      </c>
+      <c r="BF19">
+        <v>20</v>
+      </c>
+      <c r="BG19">
+        <v>20</v>
+      </c>
+      <c r="BH19">
+        <v>20</v>
+      </c>
+      <c r="BI19">
+        <v>20</v>
+      </c>
+      <c r="BJ19">
+        <v>20</v>
+      </c>
+      <c r="BK19">
+        <v>20</v>
+      </c>
+      <c r="BL19">
+        <v>20</v>
+      </c>
+      <c r="BM19">
+        <v>20</v>
+      </c>
+      <c r="BN19">
+        <v>20</v>
+      </c>
+      <c r="BO19">
+        <v>20</v>
+      </c>
+      <c r="BP19">
+        <v>20</v>
+      </c>
+      <c r="BQ19">
+        <v>20</v>
+      </c>
+      <c r="BR19">
+        <v>20</v>
+      </c>
+      <c r="BS19">
+        <v>20</v>
+      </c>
+      <c r="BT19">
+        <v>20</v>
+      </c>
+      <c r="BU19">
+        <v>20</v>
+      </c>
+      <c r="BV19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:74" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>20</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>20</v>
+      </c>
+      <c r="BC20">
+        <v>20</v>
+      </c>
+      <c r="BD20">
+        <v>20</v>
+      </c>
+      <c r="BE20">
+        <v>20</v>
+      </c>
+      <c r="BF20">
+        <v>20</v>
+      </c>
+      <c r="BG20">
+        <v>20</v>
+      </c>
+      <c r="BH20">
+        <v>20</v>
+      </c>
+      <c r="BI20">
+        <v>20</v>
+      </c>
+      <c r="BJ20">
+        <v>20</v>
+      </c>
+      <c r="BK20">
+        <v>20</v>
+      </c>
+      <c r="BL20">
+        <v>20</v>
+      </c>
+      <c r="BM20">
+        <v>20</v>
+      </c>
+      <c r="BN20">
+        <v>20</v>
+      </c>
+      <c r="BO20">
+        <v>20</v>
+      </c>
+      <c r="BP20">
+        <v>20</v>
+      </c>
+      <c r="BQ20">
+        <v>20</v>
+      </c>
+      <c r="BR20">
+        <v>20</v>
+      </c>
+      <c r="BS20">
+        <v>20</v>
+      </c>
+      <c r="BT20">
+        <v>20</v>
+      </c>
+      <c r="BU20">
+        <v>20</v>
+      </c>
+      <c r="BV20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:74" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>20</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>0</v>
+      </c>
+      <c r="BB21">
+        <v>20</v>
+      </c>
+      <c r="BC21">
+        <v>20</v>
+      </c>
+      <c r="BD21">
+        <v>20</v>
+      </c>
+      <c r="BE21">
+        <v>20</v>
+      </c>
+      <c r="BF21">
+        <v>20</v>
+      </c>
+      <c r="BG21">
+        <v>20</v>
+      </c>
+      <c r="BH21">
+        <v>20</v>
+      </c>
+      <c r="BI21">
+        <v>20</v>
+      </c>
+      <c r="BJ21">
+        <v>20</v>
+      </c>
+      <c r="BK21">
+        <v>20</v>
+      </c>
+      <c r="BL21">
+        <v>20</v>
+      </c>
+      <c r="BM21">
+        <v>20</v>
+      </c>
+      <c r="BN21">
+        <v>20</v>
+      </c>
+      <c r="BO21">
+        <v>20</v>
+      </c>
+      <c r="BP21">
+        <v>20</v>
+      </c>
+      <c r="BQ21">
+        <v>20</v>
+      </c>
+      <c r="BR21">
+        <v>20</v>
+      </c>
+      <c r="BS21">
+        <v>20</v>
+      </c>
+      <c r="BT21">
+        <v>20</v>
+      </c>
+      <c r="BU21">
+        <v>20</v>
+      </c>
+      <c r="BV21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:74" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>20</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
+        <v>20</v>
+      </c>
+      <c r="BC22">
+        <v>20</v>
+      </c>
+      <c r="BD22">
+        <v>20</v>
+      </c>
+      <c r="BE22">
+        <v>20</v>
+      </c>
+      <c r="BF22">
+        <v>20</v>
+      </c>
+      <c r="BG22">
+        <v>20</v>
+      </c>
+      <c r="BH22">
+        <v>20</v>
+      </c>
+      <c r="BI22">
+        <v>20</v>
+      </c>
+      <c r="BJ22">
+        <v>20</v>
+      </c>
+      <c r="BK22">
+        <v>20</v>
+      </c>
+      <c r="BL22">
+        <v>20</v>
+      </c>
+      <c r="BM22">
+        <v>20</v>
+      </c>
+      <c r="BN22">
+        <v>20</v>
+      </c>
+      <c r="BO22">
+        <v>20</v>
+      </c>
+      <c r="BP22">
+        <v>20</v>
+      </c>
+      <c r="BQ22">
+        <v>20</v>
+      </c>
+      <c r="BR22">
+        <v>20</v>
+      </c>
+      <c r="BS22">
+        <v>20</v>
+      </c>
+      <c r="BT22">
+        <v>20</v>
+      </c>
+      <c r="BU22">
+        <v>20</v>
+      </c>
+      <c r="BV22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:74" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>20</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>0</v>
+      </c>
+      <c r="BB23">
+        <v>20</v>
+      </c>
+      <c r="BC23">
+        <v>20</v>
+      </c>
+      <c r="BD23">
+        <v>20</v>
+      </c>
+      <c r="BE23">
+        <v>20</v>
+      </c>
+      <c r="BF23">
+        <v>20</v>
+      </c>
+      <c r="BG23">
+        <v>20</v>
+      </c>
+      <c r="BH23">
+        <v>20</v>
+      </c>
+      <c r="BI23">
+        <v>20</v>
+      </c>
+      <c r="BJ23">
+        <v>20</v>
+      </c>
+      <c r="BK23">
+        <v>20</v>
+      </c>
+      <c r="BL23">
+        <v>20</v>
+      </c>
+      <c r="BM23">
+        <v>20</v>
+      </c>
+      <c r="BN23">
+        <v>20</v>
+      </c>
+      <c r="BO23">
+        <v>20</v>
+      </c>
+      <c r="BP23">
+        <v>20</v>
+      </c>
+      <c r="BQ23">
+        <v>20</v>
+      </c>
+      <c r="BR23">
+        <v>20</v>
+      </c>
+      <c r="BS23">
+        <v>20</v>
+      </c>
+      <c r="BT23">
+        <v>20</v>
+      </c>
+      <c r="BU23">
+        <v>20</v>
+      </c>
+      <c r="BV23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:74" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AY24">
+        <v>0</v>
+      </c>
+      <c r="AZ24">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>0</v>
+      </c>
+      <c r="BB24">
+        <v>20</v>
+      </c>
+      <c r="BC24">
+        <v>20</v>
+      </c>
+      <c r="BD24">
+        <v>20</v>
+      </c>
+      <c r="BE24">
+        <v>20</v>
+      </c>
+      <c r="BF24">
+        <v>20</v>
+      </c>
+      <c r="BG24">
+        <v>20</v>
+      </c>
+      <c r="BH24">
+        <v>20</v>
+      </c>
+      <c r="BI24">
+        <v>20</v>
+      </c>
+      <c r="BJ24">
+        <v>20</v>
+      </c>
+      <c r="BK24">
+        <v>20</v>
+      </c>
+      <c r="BL24">
+        <v>20</v>
+      </c>
+      <c r="BM24">
+        <v>20</v>
+      </c>
+      <c r="BN24">
+        <v>20</v>
+      </c>
+      <c r="BO24">
+        <v>20</v>
+      </c>
+      <c r="BP24">
+        <v>20</v>
+      </c>
+      <c r="BQ24">
+        <v>20</v>
+      </c>
+      <c r="BR24">
+        <v>20</v>
+      </c>
+      <c r="BS24">
+        <v>20</v>
+      </c>
+      <c r="BT24">
+        <v>20</v>
+      </c>
+      <c r="BU24">
+        <v>20</v>
+      </c>
+      <c r="BV24">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BI1 AW2:BV8 AO5:AY5 AH9:BO10 AV11:AX13 AY11:BO14 AU12:AU13 AO14:AX14 AQ16">
-    <cfRule type="cellIs" dxfId="164" priority="438" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="506" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="496" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="173" priority="497" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="498" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="171" priority="499" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="500" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="501" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="502" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="167" priority="503" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="504" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="431" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="505" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:BV24">
+    <cfRule type="cellIs" dxfId="164" priority="1" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="163" priority="2" operator="equal">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="440" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="3" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="4" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="5" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="159" priority="6" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="7" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="8" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="9" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="155" priority="10" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="11" operator="equal">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="439" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="437" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="436" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="435" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="434" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="433" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="432" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="430" operator="equal">
-      <formula>51</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:AV4 S2:S9 A2:R16 T5:AN7 T8:AQ8 T9:AG9 S10:AG16">
-    <cfRule type="cellIs" dxfId="153" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="243" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="253" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="252" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="251" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="250" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="249" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="247" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="248" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="246" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="245" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="182" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="244" operator="equal">
       <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="177" operator="equal">
-      <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="181" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="183" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="184" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="186" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="187" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="180" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="185" operator="equal">
-      <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH12:AN14">
-    <cfRule type="cellIs" dxfId="142" priority="429" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="485" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="491" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="490" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="489" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="488" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="487" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="486" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="495" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="423" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="422" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="421" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="420" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="419" operator="equal">
-      <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="428" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="494" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="427" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="493" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="426" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="492" operator="equal">
       <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="425" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="424" operator="equal">
-      <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH15:AQ15 AI16:AL16">
-    <cfRule type="cellIs" dxfId="131" priority="401" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="473" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="472" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="471" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="470" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="469" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="468" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="467" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="400" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="466" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="399" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="465" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="398" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="464" operator="equal">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="397" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="463" operator="equal">
       <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="402" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="406" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="407" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="405" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="404" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="403" operator="equal">
-      <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH11:AW11">
-    <cfRule type="cellIs" dxfId="120" priority="414" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="474" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="119" priority="475" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="476" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="479" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="480" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="413" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="412" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="481" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="482" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="483" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="484" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="478" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="410" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="409" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="408" operator="equal">
-      <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="418" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="417" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="415" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="416" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="411" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="477" operator="equal">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN12:AP13">
-    <cfRule type="cellIs" dxfId="109" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="161" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="155" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="107" priority="156" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="157" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="158" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="159" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="160" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="162" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="163" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="96" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="92" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="95" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="94" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="93" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="91" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="90" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="89" operator="equal">
-      <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="164" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="165" operator="equal">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="98" operator="equal">
-      <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO6:AQ6">
-    <cfRule type="cellIs" dxfId="98" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="222" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="231" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="223" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="224" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="225" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="226" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="221" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="227" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="228" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="229" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="230" operator="equal">
       <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="165" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="162" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="155" operator="equal">
-      <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="156" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="157" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="158" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="159" operator="equal">
-      <formula>31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO13:AT13">
-    <cfRule type="cellIs" dxfId="87" priority="353" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="421" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="429" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="428" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="426" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="427" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="422" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="425" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="424" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="419" operator="equal">
       <formula>51</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="354" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="420" operator="equal">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="355" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="356" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="357" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="423" operator="equal">
       <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="358" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="359" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="360" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="361" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="362" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="363" operator="equal">
-      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO7:AV7">
-    <cfRule type="cellIs" dxfId="76" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="238" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="237" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="236" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="235" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="234" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="233" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="232" operator="equal">
       <formula>51</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="239" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="240" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="241" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="242" operator="equal">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="175" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="174" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="173" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="172" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="171" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="170" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="169" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="168" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="167" operator="equal">
-      <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP12:AW12">
-    <cfRule type="cellIs" dxfId="65" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="173" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="174" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="175" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="176" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="171" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="166" operator="equal">
       <formula>51</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="105" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="110" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="109" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="108" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="107" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="167" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="168" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="169" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="170" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="172" operator="equal">
       <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="104" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="103" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="102" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="101" operator="equal">
-      <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR6:AR9">
-    <cfRule type="cellIs" dxfId="54" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="89" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="99" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="98" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="97" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="96" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="95" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="94" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="93" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="92" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="91" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="90" operator="equal">
       <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="25" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="26" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="27" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="28" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="29" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="23" operator="equal">
-      <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="33" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="32" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="31" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="30" operator="equal">
-      <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR15:BO16">
-    <cfRule type="cellIs" dxfId="43" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="357" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="358" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="363" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="362" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="361" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="359" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="360" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="353" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="354" operator="equal">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="355" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="356" operator="equal">
       <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="291" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="292" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="293" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="294" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="295" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="296" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="297" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="287" operator="equal">
-      <formula>51</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS6:AV6">
-    <cfRule type="cellIs" dxfId="32" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="199" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="209" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="200" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="208" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="207" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="206" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="205" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="204" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="133" operator="equal">
-      <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="203" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="202" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="201" operator="equal">
       <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="142" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="141" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="140" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="139" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="134" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="143" operator="equal">
-      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS8:AV8">
-    <cfRule type="cellIs" dxfId="21" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="143" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="142" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="141" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="138" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="137" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="77" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="136" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="135" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="134" operator="equal">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="140" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="139" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="133" operator="equal">
       <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="75" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="74" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="73" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="76" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="72" operator="equal">
-      <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP9:BV16">
-    <cfRule type="cellIs" dxfId="10" priority="551" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="627" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="617" operator="equal">
       <formula>51</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="552" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="618" operator="equal">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="553" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="619" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="554" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="620" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="555" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="621" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="556" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="622" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="557" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="623" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="558" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="624" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="559" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="625" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="560" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="626" operator="equal">
       <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="561" operator="equal">
-      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
